--- a/artfynd/A 25683-2023 artfynd.xlsx
+++ b/artfynd/A 25683-2023 artfynd.xlsx
@@ -3145,7 +3145,7 @@
         <v>121466755</v>
       </c>
       <c r="B24" t="n">
-        <v>56755</v>
+        <v>56759</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
